--- a/document/新用户注册.xlsx
+++ b/document/新用户注册.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="71">
   <si>
     <t>ids</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,11 +44,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常注册一个用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码重复注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名重复注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcabc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码必须为6到16位的字母与数字组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcabc1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两次密码不一致注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名必须为3到10位的字母与数字组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>134125412511</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>123abc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>成功</t>
+    <t>abcabc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -56,91 +144,159 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正常注册一个用户</t>
+    <t>abcabc2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asdasdasdasd1234657</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码长度不够注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码长度超长注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码输入字母注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码长度超长用户注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码长度不够用户注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码输入汉字注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>，，，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码输入字符注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678901</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码输入不存在的号码注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码全输入数字注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码全输入字母注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123abc，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码加入字符注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码加入汉字注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcabc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名全字母注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名全数字注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名长度不够注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1234567890</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名长度超长注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名中文注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,,,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码为空注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码为空注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名为空注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名输入字符注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13412241257</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>abc2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格式错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册手机号码异常用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abc3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号码重复注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名重复注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abcabc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abc4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码必须为6到16位的字母与数字组合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码格式异常注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abcabc1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abcabc2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abc5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abc6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两次密码不一致注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名必须为3到10位的字母与数字组合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名格式异常注册</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -184,8 +340,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -490,17 +648,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="5" max="5" width="32.625" customWidth="1"/>
-    <col min="6" max="6" width="17.375" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
@@ -524,163 +682,503 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2">
+      <c r="A2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>1341254125</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
         <v>13412541257</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>13416541257</v>
+      </c>
+      <c r="B11" s="1">
+        <v>123123</v>
+      </c>
+      <c r="C11" s="1">
+        <v>123123</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>13412541251</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>13412541251</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>13412541251</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>13412541252</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>13412541252</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>13412541252</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>13412541253</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>13412541258</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>1341254125</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>13412541257</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>13412541251</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>13412541252</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>13412541253</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>13412541258</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8">
+      <c r="F20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
         <v>13412541258</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9">
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21">
+        <v>123456</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
         <v>13412541258</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" t="s">
-        <v>31</v>
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>13412541258</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>13412541258</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>13412541258</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>13412541258</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
